--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF_BOM_V1.00_01-10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D4350DDA-14CC-48DA-AD01-1023FE2B5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F026C4-4F96-434F-9F17-6242463940AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K9HZ_LPF_BOM_V1.00_01-10-24" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
   <si>
     <t>Quantity</t>
   </si>
@@ -466,42 +466,6 @@
     <t xml:space="preserve">22K Ohm 3296W 10 Turn Potentiometer </t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>for1</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>for2</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>for3</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>ref1</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>ref2</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>ref3</t>
-  </si>
-  <si>
     <t>U1, U3, U7, U8, 21</t>
   </si>
   <si>
@@ -578,12 +542,36 @@
   </si>
   <si>
     <t>AD7991YRJZ</t>
+  </si>
+  <si>
+    <t>R16, R18, R24, R25 For 100W Readout</t>
+  </si>
+  <si>
+    <t>R16, R18, R24, R25 For 20W Readout - OR</t>
+  </si>
+  <si>
+    <t>R17, R22 For 20W Readout - OR</t>
+  </si>
+  <si>
+    <t>R17, R22 For 100W Readout</t>
+  </si>
+  <si>
+    <t>55.2 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>52.3 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>498 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>1116 Ohm SMD 1206 Resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,9 +1117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1169,7 +1157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1275,7 +1263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1417,18 +1405,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2274,79 +2262,102 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
       <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C78" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>154</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C80" t="s">
         <v>155</v>
-      </c>
-      <c r="D77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -2354,32 +2365,32 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -2387,10 +2398,10 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -2398,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -2409,21 +2420,21 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -2431,54 +2442,10 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
